--- a/docs/mcode/shr-core-Encounter.xlsx
+++ b/docs/mcode/shr-core-Encounter.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="382">
   <si>
     <t>Path</t>
   </si>
@@ -194,19 +194,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Encounter.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.meta.extension</t>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
   </si>
   <si>
     <t>extensions
@@ -220,190 +299,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Encounter.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Encounter.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Encounter.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Encounter.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Encounter.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -473,6 +372,9 @@
 </t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
     <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
@@ -612,7 +514,16 @@
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Encounter.statusHistory.modifierExtension</t>
@@ -677,6 +588,9 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
@@ -693,6 +607,9 @@
   </si>
   <si>
     <t>Indicates the urgency of the encounter.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/v3-ActPriority</t>
@@ -1436,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1468,7 +1385,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="72.9921875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.1875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1928,21 +1845,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2002,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>42</v>
@@ -2013,18 +1932,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2071,13 +1990,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2106,7 +2025,7 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>42</v>
@@ -2117,11 +2036,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2137,19 +2056,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2204,13 +2123,13 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>42</v>
@@ -2221,18 +2140,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2241,19 +2160,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2314,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>42</v>
@@ -2325,11 +2244,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2345,19 +2264,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2395,16 +2314,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2418,7 +2335,7 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>42</v>
@@ -2429,9 +2346,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2449,20 +2368,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2487,13 +2402,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2510,11 +2425,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2533,9 +2452,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2553,20 +2474,16 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2591,10 +2508,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2614,11 +2531,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2637,9 +2558,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2648,29 +2571,25 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2718,11 +2637,15 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2741,9 +2664,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2752,7 +2677,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>42</v>
@@ -2764,17 +2689,13 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2799,13 +2720,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2822,11 +2743,15 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2845,18 +2770,20 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="C14" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>42</v>
@@ -2868,17 +2795,13 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2926,19 +2849,23 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH14" t="s" s="2">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>42</v>
@@ -2949,18 +2876,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -2972,17 +2899,15 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3030,11 +2955,15 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3042,7 +2971,7 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>42</v>
@@ -3053,18 +2982,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3076,17 +3005,15 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3123,20 +3050,26 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3144,7 +3077,7 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>42</v>
@@ -3155,20 +3088,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -3180,11 +3111,13 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3193,7 +3126,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>42</v>
@@ -3235,13 +3168,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3250,7 +3183,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
@@ -3263,18 +3196,16 @@
       <c r="A18" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>130</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3286,11 +3217,13 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3317,13 +3250,11 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3341,13 +3272,13 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3356,7 +3287,7 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>42</v>
@@ -3367,10 +3298,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
@@ -3392,11 +3323,11 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3447,7 +3378,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3473,13 +3404,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3492,19 +3421,23 @@
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3552,15 +3485,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3568,7 +3497,7 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
@@ -3579,11 +3508,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3601,14 +3528,16 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3658,15 +3587,11 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3674,18 +3599,18 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3693,7 +3618,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>48</v>
@@ -3702,19 +3627,19 @@
         <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3741,13 +3666,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3764,15 +3689,11 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3780,18 +3701,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3802,7 +3723,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3814,15 +3735,17 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3870,15 +3793,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3897,7 +3816,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3905,7 +3824,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>48</v>
@@ -3920,13 +3839,13 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3935,7 +3854,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>42</v>
@@ -3976,15 +3895,11 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3992,7 +3907,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -4003,18 +3918,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4026,15 +3941,17 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4059,11 +3976,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4080,15 +3999,11 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4096,7 +4011,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -4107,13 +4022,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4126,19 +4039,23 @@
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4186,15 +4103,11 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4202,7 +4115,7 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -4213,24 +4126,24 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>42</v>
@@ -4239,14 +4152,12 @@
         <v>64</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4271,13 +4182,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4306,7 +4217,7 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4317,7 +4228,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4325,10 +4236,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4337,16 +4248,16 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4408,18 +4319,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4427,7 +4338,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>48</v>
@@ -4436,19 +4347,19 @@
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4475,13 +4386,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4510,18 +4421,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4541,19 +4452,19 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4579,13 +4490,11 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4614,18 +4523,18 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4648,13 +4557,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4681,13 +4590,11 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4716,29 +4623,29 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4747,19 +4654,19 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4808,11 +4715,15 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4820,22 +4731,22 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4848,23 +4759,21 @@
         <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I33" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4924,18 +4833,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4943,10 +4852,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -4958,13 +4867,13 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4991,13 +4900,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5037,7 +4946,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5045,10 +4954,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5057,16 +4966,16 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5128,18 +5037,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5159,16 +5068,16 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5195,13 +5104,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5230,22 +5139,22 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5261,19 +5170,19 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5299,11 +5208,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5332,49 +5243,51 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>212</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5399,11 +5312,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5432,13 +5347,13 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -5447,14 +5362,14 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5466,16 +5381,16 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5501,13 +5416,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5524,15 +5439,11 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5540,18 +5451,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5562,7 +5473,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5571,16 +5482,16 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5645,15 +5556,15 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5664,7 +5575,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5673,16 +5584,16 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5744,18 +5655,18 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5766,7 +5677,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5778,7 +5689,7 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>240</v>
@@ -5880,15 +5791,17 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5948,29 +5861,29 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -5982,16 +5895,16 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6052,22 +5965,22 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6080,22 +5993,22 @@
         <v>42</v>
       </c>
       <c r="H45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I45" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6121,13 +6034,13 @@
         <v>42</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6156,22 +6069,22 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6187,19 +6100,19 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6225,13 +6138,13 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6260,18 +6173,18 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6294,15 +6207,17 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6362,18 +6277,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6393,16 +6308,16 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6464,29 +6379,29 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>264</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -6495,18 +6410,20 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6566,50 +6483,50 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6670,18 +6587,18 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6704,17 +6621,15 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6774,29 +6689,29 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6805,20 +6720,18 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -6843,13 +6756,13 @@
         <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -6878,29 +6791,29 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>294</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -6912,17 +6825,15 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>297</v>
+        <v>124</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -6947,13 +6858,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -6982,18 +6893,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7004,7 +6915,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
@@ -7016,17 +6927,15 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7086,7 +6995,7 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
@@ -7097,7 +7006,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7120,13 +7029,13 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>59</v>
+        <v>304</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7153,10 +7062,10 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>42</v>
@@ -7188,22 +7097,22 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7222,18 +7131,20 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7257,13 +7168,13 @@
         <v>42</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>42</v>
@@ -7292,22 +7203,22 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7320,23 +7231,21 @@
         <v>42</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7361,13 +7270,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7396,18 +7305,18 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>323</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7418,7 +7327,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7430,13 +7339,13 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7463,13 +7372,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7498,18 +7407,18 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7532,13 +7441,13 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7600,18 +7509,18 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7634,13 +7543,13 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7667,13 +7576,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7702,18 +7611,18 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7736,13 +7645,13 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7804,7 +7713,7 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>42</v>
@@ -7815,7 +7724,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7826,7 +7735,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -7838,15 +7747,17 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -7871,10 +7782,10 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="Y62" t="s" s="2">
         <v>42</v>
@@ -7906,18 +7817,18 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>335</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7928,7 +7839,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -7940,20 +7851,16 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -7977,13 +7884,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8012,22 +7919,22 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>343</v>
+        <v>158</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8046,15 +7953,17 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>346</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8079,13 +7988,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8114,22 +8023,22 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8142,21 +8051,23 @@
         <v>42</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8181,13 +8092,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8216,18 +8127,18 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>357</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8235,7 +8146,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>48</v>
@@ -8250,13 +8161,13 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8318,18 +8229,18 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>361</v>
+        <v>235</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>42</v>
+        <v>359</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8352,15 +8263,17 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8385,13 +8298,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8420,18 +8333,18 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>369</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8442,7 +8355,7 @@
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8454,13 +8367,13 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>327</v>
+        <v>166</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8522,7 +8435,7 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>42</v>
@@ -8533,7 +8446,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8544,7 +8457,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8556,17 +8469,15 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>184</v>
+        <v>372</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8626,18 +8537,18 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8660,13 +8571,13 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8728,737 +8639,17 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>381</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE71" s="2"/>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" s="2"/>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" s="2"/>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL77" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL77">
+  <autoFilter ref="A1:AL70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9468,7 +8659,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-Encounter.xlsx
+++ b/docs/mcode/shr-core-Encounter.xlsx
@@ -330,7 +330,7 @@
   </si>
   <si>
     <t>A period of time defined by a start and end time, date, or year.
-If the start element is missing, the start of the period is not known. If the end element is missing, it means that the period is ongoing, or the start may be in the past, and the end date in the future, which means that period is expected/planned to end at the specified time. The end value includes any matching date/time. For example, the period 2011-05-23 to 2011-05-27 includes all the times from the start of the 23rd May through to the end of the 27th of May.</t>
+If the start date/time is missing, the start of the period is not known. If the end date/time is missing, it means that the period is ongoing.</t>
   </si>
   <si>
     <t>diagnosiscode</t>
